--- a/设置课程.xlsx
+++ b/设置课程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ScheduleHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9628462-3968-40CD-8194-4ECC4D1ED9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5579DE-737E-47C5-9CDC-2589928CB858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="3060" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -853,7 +853,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -1084,6 +1084,9 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A13:G13"/>
@@ -1097,5 +1100,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>